--- a/onlinetest/static/onlinetest/docs/quesformat.xlsx
+++ b/onlinetest/static/onlinetest/docs/quesformat.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HackNIEC\onlinetest\static\onlinetest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeepakBalhara\Desktop\latest @ 21st june\onlinetest\static\onlinetest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="file1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>question</t>
   </si>
@@ -42,9 +42,6 @@
     <t>option4</t>
   </si>
   <si>
-    <t>questionType</t>
-  </si>
-  <si>
     <t>sample question</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>delte this sample question and add your questions</t>
-  </si>
-  <si>
-    <t>0 for objective , 1 for subjective</t>
   </si>
   <si>
     <t>donot delete the header</t>
@@ -72,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,9 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -916,9 +908,7 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -926,39 +916,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/onlinetest/static/onlinetest/docs/quesformat.xlsx
+++ b/onlinetest/static/onlinetest/docs/quesformat.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeepakBalhara\Desktop\latest @ 21st june\onlinetest\static\onlinetest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\tcs project final-redesigned\tcs project final\onlinetest\static\onlinetest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="file1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>question</t>
   </si>
@@ -42,31 +42,57 @@
     <t>option4</t>
   </si>
   <si>
-    <t>sample question</t>
-  </si>
-  <si>
-    <t>delhi</t>
-  </si>
-  <si>
-    <t>haryana</t>
-  </si>
-  <si>
-    <t>kolkata</t>
-  </si>
-  <si>
-    <t>banglore</t>
-  </si>
-  <si>
-    <t>delte this sample question and add your questions</t>
-  </si>
-  <si>
-    <t>donot delete the header</t>
+    <t>What is the capital of India ?</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>Do not delete the header for question, option and answer.</t>
+  </si>
+  <si>
+    <t>Delete this sample question and add your questions.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please add atleast 10 questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete the instructions in bold.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,7 +578,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -874,15 +902,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -930,22 +964,26 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="1">
+        <v>1</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
